--- a/model_lca/lca-results.xlsx
+++ b/model_lca/lca-results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\0_work\1_Models\2_building\2a_integrations\model_lca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\0_work\1_Models\2_building\2a_integrations\model_building\building-model\model_lca\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12770" windowHeight="3120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>mfh01</t>
   </si>
@@ -69,6 +69,42 @@
   </si>
   <si>
     <t>scenario_insulation</t>
+  </si>
+  <si>
+    <t>building 1 5.23903979162616</t>
+  </si>
+  <si>
+    <t>building 2 8.041367457485004</t>
+  </si>
+  <si>
+    <t>building 3 3.0912924409685627</t>
+  </si>
+  <si>
+    <t>building 4 3.488468376631697</t>
+  </si>
+  <si>
+    <t>building 5 2.313484273215065</t>
+  </si>
+  <si>
+    <t>building 6 8.497052581810957</t>
+  </si>
+  <si>
+    <t>building 7 3.8438555419302185</t>
+  </si>
+  <si>
+    <t>building 8 3.6139000112732993</t>
+  </si>
+  <si>
+    <t>building 9 2.800143124229621</t>
+  </si>
+  <si>
+    <t>building 10 3.717688459650607</t>
+  </si>
+  <si>
+    <t>building 11 4.174045922757305</t>
+  </si>
+  <si>
+    <t>building 12 5.230462846677869</t>
   </si>
 </sst>
 </file>
@@ -1663,15 +1699,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E19"/>
+  <dimension ref="B1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="28.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.35">
@@ -1793,6 +1829,66 @@
         <v>5.1893250190462998</v>
       </c>
     </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
